--- a/TBrisk/indata/all_datan_updated.xlsx
+++ b/TBrisk/indata/all_datan_updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Dropbox\pregtb\AnalysisUpdate\metaanalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nyashamarfirakureva/My Drive/Dropbox/pregtb/TBrisk/indata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B19C97-2DE5-450D-8C5E-77BB920EA279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D089368C-960A-4343-AC1C-1FA8A91EA4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_datan_updated" sheetId="1" r:id="rId1"/>
@@ -1064,15 +1064,15 @@
   <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="31" max="31" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>0.62619900100000003</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>171743</v>
       </c>
       <c r="I7">
-        <v>1459070</v>
+        <v>1459203</v>
       </c>
       <c r="J7">
         <v>1.4052970119999999</v>
@@ -1570,7 +1570,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0.465579299</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>17.12804276</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>0.56606061100000005</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>4.8913393630000002</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>11.5757785</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>0.71823654599999998</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>1.1931080869999999</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>0.54888764499999998</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>2.8552519570000001</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>2.2763676620000002</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1.776821907</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>3.2887545989999998</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>6514</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>58</v>
       </c>
